--- a/scenario1_idnnerhalf_extracted_feature.xlsx
+++ b/scenario1_idnnerhalf_extracted_feature.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Repository\ta-newsX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC4457F-D458-4FED-A7E4-4C05A494C297}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FCC400-02E5-45C6-92B2-830176BA2389}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2621,27 +2621,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2962,12 +2942,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1642"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A230" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1642" sqref="C1642"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="3" width="8.7265625" customWidth="1"/>
     <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
